--- a/data/model_data/esdesc.xlsx
+++ b/data/model_data/esdesc.xlsx
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.953213746246041</v>
+        <v>0.1395896371152919</v>
       </c>
     </row>
     <row r="3">
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.661569378410792</v>
+        <v>0.02795267350016356</v>
       </c>
     </row>
     <row r="4">
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2937277723892661</v>
+        <v>0.01916747542090384</v>
       </c>
     </row>
     <row r="5">
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>41.54199475065617</v>
+        <v>0.1795610279852724</v>
       </c>
     </row>
     <row r="6">
@@ -466,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>6.086253558695026</v>
+        <v>0.1339925922730836</v>
       </c>
     </row>
     <row r="7">
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>3.593990988267971</v>
+        <v>0.02887541151262785</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.5369277721261445</v>
+        <v>0.0355875401206638</v>
       </c>
     </row>
     <row r="9">
@@ -520,7 +520,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>29.66320342250012</v>
+        <v>0.2423780956497677</v>
       </c>
     </row>
   </sheetData>
